--- a/results_cnn_subnetwork_evaluation/pcc/generalized_surface_laplacian_filtering/summary_generalized_surface_laplacian.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc/generalized_surface_laplacian_filtering/summary_generalized_surface_laplacian.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pcc\generalized_surface_laplacian_filtering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7E134F-F7B5-4BDA-BE6F-0F7C82AAA85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADEEA90-917E-4659-BD44-FD390E2C624A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcc_surface_laplacian" sheetId="4" r:id="rId1"/>
@@ -144,35 +144,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -450,11 +435,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C355C07-6E49-4F44-A800-76D2471EB8C6}">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="C7:I7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -519,10 +502,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="1">
         <v>93.101364775358491</v>
       </c>
@@ -544,10 +527,10 @@
       <c r="I2" s="1">
         <v>47.740900296138662</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" s="3"/>
       <c r="M2">
         <v>3.4649270444699574</v>
       </c>
@@ -571,10 +554,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="1">
         <v>92.9174329651064</v>
       </c>
@@ -596,10 +579,10 @@
       <c r="I3" s="1">
         <v>69.856172342898006</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="3"/>
       <c r="M3">
         <v>3.5837407947350735</v>
       </c>
@@ -623,10 +606,10 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="1">
         <v>89.053336678229613</v>
       </c>
@@ -648,10 +631,10 @@
       <c r="I4" s="1">
         <v>50.508830814568753</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="3"/>
       <c r="M4">
         <v>5.4385382756811014</v>
       </c>
@@ -678,55 +661,55 @@
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>93.113146884200262</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>91.749533588814217</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5">
         <v>89.670738212844995</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>84.982303768487057</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5">
         <v>75.762685375017682</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5">
         <v>59.272017924030493</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5">
         <v>46.333889854871863</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5">
         <v>3.7040095151106671</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5">
         <v>4.6660308741510574</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5">
         <v>5.1856842653375148</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5">
         <v>5.2152535917282474</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5">
         <v>8.4738202288327695</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5">
         <v>10.941424406710301</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5">
         <v>9.3189278272958713</v>
       </c>
     </row>
@@ -734,51 +717,51 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="5">
+      <c r="B6" s="2"/>
+      <c r="C6">
         <v>93.053143481633342</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6">
         <v>90.886348497824386</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6">
         <v>90.323197720856868</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6">
         <v>84.953837547614299</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6">
         <v>79.620631089657635</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6">
         <v>62.912758760888927</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6">
         <v>44.508037843464628</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="5">
+      <c r="L6" s="2"/>
+      <c r="M6">
         <v>3.9872752197675312</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6">
         <v>5.1957321462377806</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6">
         <v>4.4991564068781216</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6">
         <v>4.6223904455976488</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6">
         <v>6.4013560400427734</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6">
         <v>8.8397279842025007</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6">
         <v>6.5281759752004547</v>
       </c>
     </row>
@@ -786,51 +769,51 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="6">
+      <c r="B7" s="2"/>
+      <c r="C7">
         <v>91.579621507683157</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>88.21834387264019</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
         <v>87.647303754069384</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7">
         <v>83.887553813902656</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7">
         <v>79.48606245152061</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7">
         <v>64.136108443844662</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7">
         <v>54.648806073870297</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="6">
+      <c r="L7" s="2"/>
+      <c r="M7">
         <v>4.5335274096690847</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7">
         <v>6.1233749140175817</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7">
         <v>6.026762504697138</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7">
         <v>5.8968066838744084</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7">
         <v>6.9627477602587504</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7">
         <v>9.7411206013203078</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7">
         <v>10.77245562517648</v>
       </c>
     </row>
@@ -838,51 +821,51 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="7">
+      <c r="B8" s="2"/>
+      <c r="C8">
         <v>90.212611412440125</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8">
         <v>89.419775834277686</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8">
         <v>88.372612796535151</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8">
         <v>80.476068132077273</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8">
         <v>76.559488692232051</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8">
         <v>63.95654229996223</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8">
         <v>55.218118957199742</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="7">
+      <c r="L8" s="2"/>
+      <c r="M8">
         <v>5.1774780277668837</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8">
         <v>5.8855849597253371</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8">
         <v>5.2696422924576174</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8">
         <v>5.587508332190076</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8">
         <v>6.7799979714244687</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8">
         <v>9.2029739138063036</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8">
         <v>10.83407146633883</v>
       </c>
     </row>
@@ -890,51 +873,51 @@
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="8">
+      <c r="B9" s="2"/>
+      <c r="C9">
         <v>90.084819072829347</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9">
         <v>89.303151411344388</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9">
         <v>87.066863323500485</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9">
         <v>79.445084588390316</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9">
         <v>75.107777748942439</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9">
         <v>66.874047353350818</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9">
         <v>56.21099086785641</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="8">
+      <c r="L9" s="2"/>
+      <c r="M9">
         <v>5.1380550132743084</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9">
         <v>5.1384270278292172</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9">
         <v>5.7921632754264394</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9">
         <v>6.0323058838530139</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9">
         <v>6.9748198258504468</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9">
         <v>8.4516432861658437</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9">
         <v>10.429185716172441</v>
       </c>
     </row>
@@ -942,51 +925,51 @@
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="9">
+      <c r="B10" s="2"/>
+      <c r="C10">
         <v>89.661415756191658</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10">
         <v>88.04566648500419</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10">
         <v>85.426324333832184</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10">
         <v>79.378521152143776</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10">
         <v>74.409023146105653</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10">
         <v>63.85187011421668</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10">
         <v>54.269229549275238</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="9">
+      <c r="L10" s="2"/>
+      <c r="M10">
         <v>5.0704882397024411</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10">
         <v>5.7251909141599304</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10">
         <v>5.5987654006730407</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10">
         <v>6.3734778433530899</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10">
         <v>7.2863433217209206</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10">
         <v>9.0724857709392399</v>
       </c>
-      <c r="S10" s="15">
+      <c r="S10">
         <v>8.683376959047429</v>
       </c>
     </row>
@@ -994,51 +977,51 @@
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="16">
+      <c r="B11" s="2"/>
+      <c r="C11">
         <v>89.817152397512075</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11">
         <v>87.963572349241787</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11">
         <v>86.141990847671707</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11">
         <v>79.671415842697584</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11">
         <v>72.8931046116316</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11">
         <v>62.949650660184503</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11">
         <v>53.296066574970368</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="16">
+      <c r="L11" s="2"/>
+      <c r="M11">
         <v>4.5124657638145411</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11">
         <v>5.5577830969957622</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11">
         <v>5.8964754984458603</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11">
         <v>6.1197864859382767</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="Q11">
         <v>8.0864460568245384</v>
       </c>
-      <c r="R11" s="16">
+      <c r="R11">
         <v>9.0456060191729577</v>
       </c>
-      <c r="S11" s="16">
+      <c r="S11">
         <v>7.5733819125010093</v>
       </c>
     </row>
@@ -1046,62 +1029,53 @@
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="17">
+      <c r="B12" s="2"/>
+      <c r="C12">
         <v>88.193943430883195</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12">
         <v>87.287459234076422</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12">
         <v>85.93863845419655</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12">
         <v>78.286323122749053</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12">
         <v>71.682952851379923</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12">
         <v>61.892856627940851</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12">
         <v>53.60330683368079</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="17">
+      <c r="L12" s="2"/>
+      <c r="M12">
         <v>4.738300568518703</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12">
         <v>5.3990824812745153</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12">
         <v>5.4993364506178786</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12">
         <v>6.8508794301354952</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12">
         <v>7.4956271443809168</v>
       </c>
-      <c r="R12" s="17">
+      <c r="R12">
         <v>9.147247941361508</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12">
         <v>9.6741338439096989</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -1160,10 +1134,10 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="3"/>
       <c r="C15">
         <v>92.567111769713335</v>
       </c>
@@ -1185,10 +1159,10 @@
       <c r="I15">
         <v>43.622535641382179</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" s="3"/>
       <c r="M15">
         <v>3.88093621561358</v>
       </c>
@@ -1212,10 +1186,10 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="3"/>
       <c r="C16">
         <v>92.338566773632834</v>
       </c>
@@ -1237,10 +1211,10 @@
       <c r="I16">
         <v>68.108240193153023</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L16" s="2"/>
+      <c r="L16" s="3"/>
       <c r="M16">
         <v>4.0483086633488163</v>
       </c>
@@ -1264,10 +1238,10 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="3"/>
       <c r="C17">
         <v>88.499186482198567</v>
       </c>
@@ -1289,10 +1263,10 @@
       <c r="I17">
         <v>44.56238292926399</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="2"/>
+      <c r="L17" s="3"/>
       <c r="M17">
         <v>5.9037054685544437</v>
       </c>
@@ -1319,55 +1293,55 @@
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18">
         <v>92.585967481796871</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18">
         <v>91.313417902038879</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18">
         <v>89.071433240773374</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18">
         <v>84.430667065862025</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18">
         <v>74.620110321660178</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18">
         <v>57.729776408047563</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18">
         <v>40.926778409266866</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M18">
         <v>4.1190461448812883</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18">
         <v>5.0479140386031087</v>
       </c>
-      <c r="O18" s="18">
+      <c r="O18">
         <v>5.7227029784618981</v>
       </c>
-      <c r="P18" s="18">
+      <c r="P18">
         <v>5.4985207967748737</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="Q18">
         <v>8.9665209094802485</v>
       </c>
-      <c r="R18" s="18">
+      <c r="R18">
         <v>11.349059301553211</v>
       </c>
-      <c r="S18" s="18">
+      <c r="S18">
         <v>11.05617423164966</v>
       </c>
     </row>
@@ -1375,51 +1349,51 @@
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="18">
+      <c r="B19" s="2"/>
+      <c r="C19">
         <v>92.603782215910087</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19">
         <v>90.262334808427767</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19">
         <v>89.82540629282677</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19">
         <v>84.400771771755316</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19">
         <v>78.772449333136279</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19">
         <v>61.840203650833359</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19">
         <v>38.412876121977916</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="18">
+      <c r="L19" s="2"/>
+      <c r="M19">
         <v>4.4405799374618198</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N19">
         <v>5.7451202216286257</v>
       </c>
-      <c r="O19" s="18">
+      <c r="O19">
         <v>4.8670511789444468</v>
       </c>
-      <c r="P19" s="18">
+      <c r="P19">
         <v>4.9325366781832338</v>
       </c>
-      <c r="Q19" s="18">
+      <c r="Q19">
         <v>7.029848092265345</v>
       </c>
-      <c r="R19" s="18">
+      <c r="R19">
         <v>9.0186943841326457</v>
       </c>
-      <c r="S19" s="18">
+      <c r="S19">
         <v>7.771449833097023</v>
       </c>
     </row>
@@ -1427,51 +1401,51 @@
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="18">
+      <c r="B20" s="2"/>
+      <c r="C20">
         <v>91.081927840808433</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20">
         <v>87.684987506619976</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20">
         <v>87.27081687164015</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20">
         <v>83.161961006389646</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20">
         <v>78.602198625513438</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20">
         <v>62.429217703804063</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20">
         <v>50.327216453861126</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="18">
+      <c r="L20" s="2"/>
+      <c r="M20">
         <v>5.0278535681088243</v>
       </c>
-      <c r="N20" s="18">
+      <c r="N20">
         <v>6.4718041382743881</v>
       </c>
-      <c r="O20" s="18">
+      <c r="O20">
         <v>6.3307190280562127</v>
       </c>
-      <c r="P20" s="18">
+      <c r="P20">
         <v>6.3795918367927573</v>
       </c>
-      <c r="Q20" s="18">
+      <c r="Q20">
         <v>7.6119651620777704</v>
       </c>
-      <c r="R20" s="18">
+      <c r="R20">
         <v>10.57249776824408</v>
       </c>
-      <c r="S20" s="18">
+      <c r="S20">
         <v>12.72817257493416</v>
       </c>
     </row>
@@ -1479,51 +1453,51 @@
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="18">
+      <c r="B21" s="2"/>
+      <c r="C21">
         <v>89.644638837679821</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21">
         <v>88.832235357085267</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21">
         <v>87.784876095604616</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21">
         <v>79.565194861748779</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21">
         <v>75.734515312347014</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21">
         <v>62.439186953401219</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21">
         <v>50.474777835549446</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="18">
+      <c r="L21" s="2"/>
+      <c r="M21">
         <v>5.6337263714853885</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21">
         <v>6.3295758340906003</v>
       </c>
-      <c r="O21" s="18">
+      <c r="O21">
         <v>5.712095802065237</v>
       </c>
-      <c r="P21" s="18">
+      <c r="P21">
         <v>6.0565246528809871</v>
       </c>
-      <c r="Q21" s="18">
+      <c r="Q21">
         <v>7.1392332762901995</v>
       </c>
-      <c r="R21" s="18">
+      <c r="R21">
         <v>9.8513477784150112</v>
       </c>
-      <c r="S21" s="18">
+      <c r="S21">
         <v>12.535546063955879</v>
       </c>
     </row>
@@ -1531,51 +1505,51 @@
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="18">
+      <c r="B22" s="2"/>
+      <c r="C22">
         <v>89.487105403835685</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22">
         <v>88.707572078492916</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22">
         <v>86.426030723556863</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22">
         <v>78.49543423448246</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22">
         <v>74.133652201259196</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22">
         <v>65.444157538801676</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22">
         <v>52.493719332914743</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="18">
+      <c r="L22" s="2"/>
+      <c r="M22">
         <v>5.5869146897287463</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N22">
         <v>5.7426745960735408</v>
       </c>
-      <c r="O22" s="18">
+      <c r="O22">
         <v>6.3807802799052684</v>
       </c>
-      <c r="P22" s="18">
+      <c r="P22">
         <v>6.6617360492423048</v>
       </c>
-      <c r="Q22" s="18">
+      <c r="Q22">
         <v>7.4710432104834563</v>
       </c>
-      <c r="R22" s="18">
+      <c r="R22">
         <v>9.1192677577277852</v>
       </c>
-      <c r="S22" s="18">
+      <c r="S22">
         <v>11.62676144298649</v>
       </c>
     </row>
@@ -1583,51 +1557,51 @@
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="18">
+      <c r="B23" s="2"/>
+      <c r="C23">
         <v>89.019136482146294</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23">
         <v>87.41881497347002</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23">
         <v>84.760203320527722</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23">
         <v>78.539871405940673</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23">
         <v>73.359996619176897</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23">
         <v>62.13074772235575</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23">
         <v>50.478879685998855</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="18">
+      <c r="L23" s="2"/>
+      <c r="M23">
         <v>5.5440228882484019</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23">
         <v>6.1890179838423203</v>
       </c>
-      <c r="O23" s="18">
+      <c r="O23">
         <v>5.9586184293843134</v>
       </c>
-      <c r="P23" s="18">
+      <c r="P23">
         <v>6.8545846160008956</v>
       </c>
-      <c r="Q23" s="18">
+      <c r="Q23">
         <v>7.9156374588352119</v>
       </c>
-      <c r="R23" s="18">
+      <c r="R23">
         <v>9.791245427984272</v>
       </c>
-      <c r="S23" s="18">
+      <c r="S23">
         <v>10.04604976368349</v>
       </c>
     </row>
@@ -1635,51 +1609,51 @@
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="18">
+      <c r="B24" s="2"/>
+      <c r="C24">
         <v>89.238869796493674</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24">
         <v>87.306095031975872</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24">
         <v>85.566169092021809</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24">
         <v>78.895888119014472</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24">
         <v>71.73637384351656</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24">
         <v>61.412781836092677</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24">
         <v>49.91230553601401</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="18">
+      <c r="L24" s="2"/>
+      <c r="M24">
         <v>4.9520431158543712</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24">
         <v>6.089338440962786</v>
       </c>
-      <c r="O24" s="18">
+      <c r="O24">
         <v>6.2868088050108852</v>
       </c>
-      <c r="P24" s="18">
+      <c r="P24">
         <v>6.5544539385805303</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="Q24">
         <v>9.0032669871014477</v>
       </c>
-      <c r="R24" s="18">
+      <c r="R24">
         <v>9.5917571263641719</v>
       </c>
-      <c r="S24" s="18">
+      <c r="S24">
         <v>8.39411943554272</v>
       </c>
     </row>
@@ -1687,105 +1661,62 @@
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="18">
+      <c r="B25" s="2"/>
+      <c r="C25">
         <v>87.528624354026661</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25">
         <v>86.802859639484197</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25">
         <v>85.315702308010216</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25">
         <v>77.466410195573999</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25">
         <v>70.744609004505662</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25">
         <v>60.340914073578965</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25">
         <v>50.624658682159797</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="18">
+      <c r="L25" s="2"/>
+      <c r="M25">
         <v>5.0598364128504718</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N25">
         <v>5.6364339917960171</v>
       </c>
-      <c r="O25" s="18">
+      <c r="O25">
         <v>5.7486513894428279</v>
       </c>
-      <c r="P25" s="18">
+      <c r="P25">
         <v>7.4568896228696975</v>
       </c>
-      <c r="Q25" s="18">
+      <c r="Q25">
         <v>8.0033483489556136</v>
       </c>
-      <c r="R25" s="18">
+      <c r="R25">
         <v>9.802914975481821</v>
       </c>
-      <c r="S25" s="18">
+      <c r="S25">
         <v>10.868957426503</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="B18:B25"/>
     <mergeCell ref="L18:L25"/>
     <mergeCell ref="A17:B17"/>
@@ -1796,26 +1727,10 @@
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="K16:L16"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:I4">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="51">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1865,21 +1780,39 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="437">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="489">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I4">
-    <cfRule type="colorScale" priority="436">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I4">
-    <cfRule type="colorScale" priority="488">
+  <conditionalFormatting sqref="C2:I12">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1891,16 +1824,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:I17">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -1932,6 +1855,38 @@
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="496">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:I25">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1943,16 +1898,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:S4">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -1983,19 +1928,49 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="443">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="495">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S4">
-    <cfRule type="colorScale" priority="442">
+  <conditionalFormatting sqref="M2:S12">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2007,16 +1982,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15:S17">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -2057,81 +2022,29 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S4">
-    <cfRule type="colorScale" priority="494">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:I17">
-    <cfRule type="colorScale" priority="495">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M15:S17">
-    <cfRule type="colorScale" priority="499">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I12">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S12">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:I25">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="500">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15:S25">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/results_cnn_subnetwork_evaluation/pcc/generalized_surface_laplacian_filtering/summary_generalized_surface_laplacian.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc/generalized_surface_laplacian_filtering/summary_generalized_surface_laplacian.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pcc\generalized_surface_laplacian_filtering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7E134F-F7B5-4BDA-BE6F-0F7C82AAA85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E12F4DA-5FF6-470E-9FAE-E97EB8E53F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,32 +144,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -450,11 +435,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C355C07-6E49-4F44-A800-76D2471EB8C6}">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="C7:I7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -519,10 +502,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="1">
         <v>93.101364775358491</v>
       </c>
@@ -544,10 +527,10 @@
       <c r="I2" s="1">
         <v>47.740900296138662</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" s="3"/>
       <c r="M2">
         <v>3.4649270444699574</v>
       </c>
@@ -571,10 +554,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="1">
         <v>92.9174329651064</v>
       </c>
@@ -596,10 +579,10 @@
       <c r="I3" s="1">
         <v>69.856172342898006</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="3"/>
       <c r="M3">
         <v>3.5837407947350735</v>
       </c>
@@ -623,10 +606,10 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="1">
         <v>89.053336678229613</v>
       </c>
@@ -648,10 +631,10 @@
       <c r="I4" s="1">
         <v>50.508830814568753</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="3"/>
       <c r="M4">
         <v>5.4385382756811014</v>
       </c>
@@ -678,55 +661,55 @@
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>93.113146884200262</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>91.749533588814217</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5">
         <v>89.670738212844995</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>84.982303768487057</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5">
         <v>75.762685375017682</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5">
         <v>59.272017924030493</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5">
         <v>46.333889854871863</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5">
         <v>3.7040095151106671</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5">
         <v>4.6660308741510574</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5">
         <v>5.1856842653375148</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5">
         <v>5.2152535917282474</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5">
         <v>8.4738202288327695</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5">
         <v>10.941424406710301</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5">
         <v>9.3189278272958713</v>
       </c>
     </row>
@@ -734,51 +717,51 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="5">
+      <c r="B6" s="2"/>
+      <c r="C6">
         <v>93.053143481633342</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6">
         <v>90.886348497824386</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6">
         <v>90.323197720856868</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6">
         <v>84.953837547614299</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6">
         <v>79.620631089657635</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6">
         <v>62.912758760888927</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6">
         <v>44.508037843464628</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="5">
+      <c r="L6" s="2"/>
+      <c r="M6">
         <v>3.9872752197675312</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6">
         <v>5.1957321462377806</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6">
         <v>4.4991564068781216</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6">
         <v>4.6223904455976488</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6">
         <v>6.4013560400427734</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6">
         <v>8.8397279842025007</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6">
         <v>6.5281759752004547</v>
       </c>
     </row>
@@ -786,51 +769,51 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="6">
+      <c r="B7" s="2"/>
+      <c r="C7">
         <v>91.579621507683157</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>88.21834387264019</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
         <v>87.647303754069384</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7">
         <v>83.887553813902656</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7">
         <v>79.48606245152061</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7">
         <v>64.136108443844662</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7">
         <v>54.648806073870297</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="6">
+      <c r="L7" s="2"/>
+      <c r="M7">
         <v>4.5335274096690847</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7">
         <v>6.1233749140175817</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7">
         <v>6.026762504697138</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7">
         <v>5.8968066838744084</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7">
         <v>6.9627477602587504</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7">
         <v>9.7411206013203078</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7">
         <v>10.77245562517648</v>
       </c>
     </row>
@@ -838,51 +821,51 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="7">
+      <c r="B8" s="2"/>
+      <c r="C8">
         <v>90.212611412440125</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8">
         <v>89.419775834277686</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8">
         <v>88.372612796535151</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8">
         <v>80.476068132077273</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8">
         <v>76.559488692232051</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8">
         <v>63.95654229996223</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8">
         <v>55.218118957199742</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="7">
+      <c r="L8" s="2"/>
+      <c r="M8">
         <v>5.1774780277668837</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8">
         <v>5.8855849597253371</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8">
         <v>5.2696422924576174</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8">
         <v>5.587508332190076</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8">
         <v>6.7799979714244687</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8">
         <v>9.2029739138063036</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8">
         <v>10.83407146633883</v>
       </c>
     </row>
@@ -890,51 +873,51 @@
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="8">
+      <c r="B9" s="2"/>
+      <c r="C9">
         <v>90.084819072829347</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9">
         <v>89.303151411344388</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9">
         <v>87.066863323500485</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9">
         <v>79.445084588390316</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9">
         <v>75.107777748942439</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9">
         <v>66.874047353350818</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9">
         <v>56.21099086785641</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="8">
+      <c r="L9" s="2"/>
+      <c r="M9">
         <v>5.1380550132743084</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9">
         <v>5.1384270278292172</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9">
         <v>5.7921632754264394</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9">
         <v>6.0323058838530139</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9">
         <v>6.9748198258504468</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9">
         <v>8.4516432861658437</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9">
         <v>10.429185716172441</v>
       </c>
     </row>
@@ -942,51 +925,51 @@
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="9">
+      <c r="B10" s="2"/>
+      <c r="C10">
         <v>89.661415756191658</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10">
         <v>88.04566648500419</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10">
         <v>85.426324333832184</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10">
         <v>79.378521152143776</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10">
         <v>74.409023146105653</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10">
         <v>63.85187011421668</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10">
         <v>54.269229549275238</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="9">
+      <c r="L10" s="2"/>
+      <c r="M10">
         <v>5.0704882397024411</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10">
         <v>5.7251909141599304</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10">
         <v>5.5987654006730407</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10">
         <v>6.3734778433530899</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10">
         <v>7.2863433217209206</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10">
         <v>9.0724857709392399</v>
       </c>
-      <c r="S10" s="15">
+      <c r="S10">
         <v>8.683376959047429</v>
       </c>
     </row>
@@ -994,51 +977,51 @@
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="16">
+      <c r="B11" s="2"/>
+      <c r="C11">
         <v>89.817152397512075</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11">
         <v>87.963572349241787</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11">
         <v>86.141990847671707</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11">
         <v>79.671415842697584</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11">
         <v>72.8931046116316</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11">
         <v>62.949650660184503</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11">
         <v>53.296066574970368</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="16">
+      <c r="L11" s="2"/>
+      <c r="M11">
         <v>4.5124657638145411</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11">
         <v>5.5577830969957622</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11">
         <v>5.8964754984458603</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11">
         <v>6.1197864859382767</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="Q11">
         <v>8.0864460568245384</v>
       </c>
-      <c r="R11" s="16">
+      <c r="R11">
         <v>9.0456060191729577</v>
       </c>
-      <c r="S11" s="16">
+      <c r="S11">
         <v>7.5733819125010093</v>
       </c>
     </row>
@@ -1046,62 +1029,53 @@
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="17">
+      <c r="B12" s="2"/>
+      <c r="C12">
         <v>88.193943430883195</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12">
         <v>87.287459234076422</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12">
         <v>85.93863845419655</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12">
         <v>78.286323122749053</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12">
         <v>71.682952851379923</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12">
         <v>61.892856627940851</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12">
         <v>53.60330683368079</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="17">
+      <c r="L12" s="2"/>
+      <c r="M12">
         <v>4.738300568518703</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12">
         <v>5.3990824812745153</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12">
         <v>5.4993364506178786</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12">
         <v>6.8508794301354952</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12">
         <v>7.4956271443809168</v>
       </c>
-      <c r="R12" s="17">
+      <c r="R12">
         <v>9.147247941361508</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12">
         <v>9.6741338439096989</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -1160,10 +1134,10 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="3"/>
       <c r="C15">
         <v>92.567111769713335</v>
       </c>
@@ -1185,10 +1159,10 @@
       <c r="I15">
         <v>43.622535641382179</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" s="3"/>
       <c r="M15">
         <v>3.88093621561358</v>
       </c>
@@ -1212,10 +1186,10 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="3"/>
       <c r="C16">
         <v>92.338566773632834</v>
       </c>
@@ -1237,10 +1211,10 @@
       <c r="I16">
         <v>68.108240193153023</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L16" s="2"/>
+      <c r="L16" s="3"/>
       <c r="M16">
         <v>4.0483086633488163</v>
       </c>
@@ -1264,10 +1238,10 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="3"/>
       <c r="C17">
         <v>88.499186482198567</v>
       </c>
@@ -1289,10 +1263,10 @@
       <c r="I17">
         <v>44.56238292926399</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="2"/>
+      <c r="L17" s="3"/>
       <c r="M17">
         <v>5.9037054685544437</v>
       </c>
@@ -1319,55 +1293,55 @@
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18">
         <v>92.585967481796871</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18">
         <v>91.313417902038879</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18">
         <v>89.071433240773374</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18">
         <v>84.430667065862025</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18">
         <v>74.620110321660178</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18">
         <v>57.729776408047563</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18">
         <v>40.926778409266866</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M18">
         <v>4.1190461448812883</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18">
         <v>5.0479140386031087</v>
       </c>
-      <c r="O18" s="18">
+      <c r="O18">
         <v>5.7227029784618981</v>
       </c>
-      <c r="P18" s="18">
+      <c r="P18">
         <v>5.4985207967748737</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="Q18">
         <v>8.9665209094802485</v>
       </c>
-      <c r="R18" s="18">
+      <c r="R18">
         <v>11.349059301553211</v>
       </c>
-      <c r="S18" s="18">
+      <c r="S18">
         <v>11.05617423164966</v>
       </c>
     </row>
@@ -1375,51 +1349,51 @@
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="18">
+      <c r="B19" s="2"/>
+      <c r="C19">
         <v>92.603782215910087</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19">
         <v>90.262334808427767</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19">
         <v>89.82540629282677</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19">
         <v>84.400771771755316</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19">
         <v>78.772449333136279</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19">
         <v>61.840203650833359</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19">
         <v>38.412876121977916</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="18">
+      <c r="L19" s="2"/>
+      <c r="M19">
         <v>4.4405799374618198</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N19">
         <v>5.7451202216286257</v>
       </c>
-      <c r="O19" s="18">
+      <c r="O19">
         <v>4.8670511789444468</v>
       </c>
-      <c r="P19" s="18">
+      <c r="P19">
         <v>4.9325366781832338</v>
       </c>
-      <c r="Q19" s="18">
+      <c r="Q19">
         <v>7.029848092265345</v>
       </c>
-      <c r="R19" s="18">
+      <c r="R19">
         <v>9.0186943841326457</v>
       </c>
-      <c r="S19" s="18">
+      <c r="S19">
         <v>7.771449833097023</v>
       </c>
     </row>
@@ -1427,51 +1401,51 @@
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="18">
+      <c r="B20" s="2"/>
+      <c r="C20">
         <v>91.081927840808433</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20">
         <v>87.684987506619976</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20">
         <v>87.27081687164015</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20">
         <v>83.161961006389646</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20">
         <v>78.602198625513438</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20">
         <v>62.429217703804063</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20">
         <v>50.327216453861126</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="18">
+      <c r="L20" s="2"/>
+      <c r="M20">
         <v>5.0278535681088243</v>
       </c>
-      <c r="N20" s="18">
+      <c r="N20">
         <v>6.4718041382743881</v>
       </c>
-      <c r="O20" s="18">
+      <c r="O20">
         <v>6.3307190280562127</v>
       </c>
-      <c r="P20" s="18">
+      <c r="P20">
         <v>6.3795918367927573</v>
       </c>
-      <c r="Q20" s="18">
+      <c r="Q20">
         <v>7.6119651620777704</v>
       </c>
-      <c r="R20" s="18">
+      <c r="R20">
         <v>10.57249776824408</v>
       </c>
-      <c r="S20" s="18">
+      <c r="S20">
         <v>12.72817257493416</v>
       </c>
     </row>
@@ -1479,51 +1453,51 @@
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="18">
+      <c r="B21" s="2"/>
+      <c r="C21">
         <v>89.644638837679821</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21">
         <v>88.832235357085267</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21">
         <v>87.784876095604616</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21">
         <v>79.565194861748779</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21">
         <v>75.734515312347014</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21">
         <v>62.439186953401219</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21">
         <v>50.474777835549446</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="18">
+      <c r="L21" s="2"/>
+      <c r="M21">
         <v>5.6337263714853885</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21">
         <v>6.3295758340906003</v>
       </c>
-      <c r="O21" s="18">
+      <c r="O21">
         <v>5.712095802065237</v>
       </c>
-      <c r="P21" s="18">
+      <c r="P21">
         <v>6.0565246528809871</v>
       </c>
-      <c r="Q21" s="18">
+      <c r="Q21">
         <v>7.1392332762901995</v>
       </c>
-      <c r="R21" s="18">
+      <c r="R21">
         <v>9.8513477784150112</v>
       </c>
-      <c r="S21" s="18">
+      <c r="S21">
         <v>12.535546063955879</v>
       </c>
     </row>
@@ -1531,51 +1505,51 @@
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="18">
+      <c r="B22" s="2"/>
+      <c r="C22">
         <v>89.487105403835685</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22">
         <v>88.707572078492916</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22">
         <v>86.426030723556863</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22">
         <v>78.49543423448246</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22">
         <v>74.133652201259196</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22">
         <v>65.444157538801676</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22">
         <v>52.493719332914743</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="18">
+      <c r="L22" s="2"/>
+      <c r="M22">
         <v>5.5869146897287463</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N22">
         <v>5.7426745960735408</v>
       </c>
-      <c r="O22" s="18">
+      <c r="O22">
         <v>6.3807802799052684</v>
       </c>
-      <c r="P22" s="18">
+      <c r="P22">
         <v>6.6617360492423048</v>
       </c>
-      <c r="Q22" s="18">
+      <c r="Q22">
         <v>7.4710432104834563</v>
       </c>
-      <c r="R22" s="18">
+      <c r="R22">
         <v>9.1192677577277852</v>
       </c>
-      <c r="S22" s="18">
+      <c r="S22">
         <v>11.62676144298649</v>
       </c>
     </row>
@@ -1583,51 +1557,51 @@
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="18">
+      <c r="B23" s="2"/>
+      <c r="C23">
         <v>89.019136482146294</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23">
         <v>87.41881497347002</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23">
         <v>84.760203320527722</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23">
         <v>78.539871405940673</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23">
         <v>73.359996619176897</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23">
         <v>62.13074772235575</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23">
         <v>50.478879685998855</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="18">
+      <c r="L23" s="2"/>
+      <c r="M23">
         <v>5.5440228882484019</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23">
         <v>6.1890179838423203</v>
       </c>
-      <c r="O23" s="18">
+      <c r="O23">
         <v>5.9586184293843134</v>
       </c>
-      <c r="P23" s="18">
+      <c r="P23">
         <v>6.8545846160008956</v>
       </c>
-      <c r="Q23" s="18">
+      <c r="Q23">
         <v>7.9156374588352119</v>
       </c>
-      <c r="R23" s="18">
+      <c r="R23">
         <v>9.791245427984272</v>
       </c>
-      <c r="S23" s="18">
+      <c r="S23">
         <v>10.04604976368349</v>
       </c>
     </row>
@@ -1635,51 +1609,51 @@
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="18">
+      <c r="B24" s="2"/>
+      <c r="C24">
         <v>89.238869796493674</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24">
         <v>87.306095031975872</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24">
         <v>85.566169092021809</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24">
         <v>78.895888119014472</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24">
         <v>71.73637384351656</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24">
         <v>61.412781836092677</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24">
         <v>49.91230553601401</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="18">
+      <c r="L24" s="2"/>
+      <c r="M24">
         <v>4.9520431158543712</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24">
         <v>6.089338440962786</v>
       </c>
-      <c r="O24" s="18">
+      <c r="O24">
         <v>6.2868088050108852</v>
       </c>
-      <c r="P24" s="18">
+      <c r="P24">
         <v>6.5544539385805303</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="Q24">
         <v>9.0032669871014477</v>
       </c>
-      <c r="R24" s="18">
+      <c r="R24">
         <v>9.5917571263641719</v>
       </c>
-      <c r="S24" s="18">
+      <c r="S24">
         <v>8.39411943554272</v>
       </c>
     </row>
@@ -1687,105 +1661,62 @@
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="18">
+      <c r="B25" s="2"/>
+      <c r="C25">
         <v>87.528624354026661</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25">
         <v>86.802859639484197</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25">
         <v>85.315702308010216</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25">
         <v>77.466410195573999</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25">
         <v>70.744609004505662</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25">
         <v>60.340914073578965</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25">
         <v>50.624658682159797</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="18">
+      <c r="L25" s="2"/>
+      <c r="M25">
         <v>5.0598364128504718</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N25">
         <v>5.6364339917960171</v>
       </c>
-      <c r="O25" s="18">
+      <c r="O25">
         <v>5.7486513894428279</v>
       </c>
-      <c r="P25" s="18">
+      <c r="P25">
         <v>7.4568896228696975</v>
       </c>
-      <c r="Q25" s="18">
+      <c r="Q25">
         <v>8.0033483489556136</v>
       </c>
-      <c r="R25" s="18">
+      <c r="R25">
         <v>9.802914975481821</v>
       </c>
-      <c r="S25" s="18">
+      <c r="S25">
         <v>10.868957426503</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="B18:B25"/>
     <mergeCell ref="L18:L25"/>
     <mergeCell ref="A17:B17"/>
@@ -1796,12 +1727,6 @@
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="K16:L16"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:I4">
@@ -1865,21 +1790,29 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="436">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="488">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I4">
-    <cfRule type="colorScale" priority="436">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I4">
-    <cfRule type="colorScale" priority="488">
+  <conditionalFormatting sqref="C2:I12">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1941,6 +1874,28 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="495">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:I25">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:S4">
     <cfRule type="colorScale" priority="37">
@@ -1993,9 +1948,29 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="442">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="494">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S4">
-    <cfRule type="colorScale" priority="442">
+  <conditionalFormatting sqref="M2:S12">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2057,32 +2032,6 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S4">
-    <cfRule type="colorScale" priority="494">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:I17">
-    <cfRule type="colorScale" priority="495">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M15:S17">
     <cfRule type="colorScale" priority="499">
       <colorScale>
         <cfvo type="min"/>
@@ -2091,42 +2040,6 @@
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I12">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S12">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:I25">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
